--- a/app/Licenciatura_em_Traducao_Ingles_Portugues_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Traducao_Ingles_Portugues_Pos_Laboral.xlsx
@@ -12,37 +12,35 @@
     <sheet name="20154371" sheetId="2" r:id="rId5"/>
     <sheet name="20154365" sheetId="3" r:id="rId6"/>
     <sheet name="20154363" sheetId="4" r:id="rId7"/>
-    <sheet name="20154500" sheetId="5" r:id="rId8"/>
-    <sheet name="20154360" sheetId="6" r:id="rId9"/>
-    <sheet name="20154369" sheetId="7" r:id="rId10"/>
-    <sheet name="20154357" sheetId="8" r:id="rId11"/>
-    <sheet name="20154356" sheetId="9" r:id="rId12"/>
-    <sheet name="20154349" sheetId="10" r:id="rId13"/>
-    <sheet name="20154350" sheetId="11" r:id="rId14"/>
-    <sheet name="20154366" sheetId="12" r:id="rId15"/>
-    <sheet name="20154355" sheetId="13" r:id="rId16"/>
-    <sheet name="20154368" sheetId="14" r:id="rId17"/>
-    <sheet name="20154343" sheetId="15" r:id="rId18"/>
-    <sheet name="20154354" sheetId="16" r:id="rId19"/>
-    <sheet name="20154361" sheetId="17" r:id="rId20"/>
-    <sheet name="20154367" sheetId="18" r:id="rId21"/>
-    <sheet name="20154362" sheetId="19" r:id="rId22"/>
-    <sheet name="20154345" sheetId="20" r:id="rId23"/>
-    <sheet name="20154348" sheetId="21" r:id="rId24"/>
-    <sheet name="20154531" sheetId="22" r:id="rId25"/>
-    <sheet name="20154358" sheetId="23" r:id="rId26"/>
-    <sheet name="20154353" sheetId="24" r:id="rId27"/>
-    <sheet name="20154364" sheetId="25" r:id="rId28"/>
-    <sheet name="20154370" sheetId="26" r:id="rId29"/>
-    <sheet name="20154351" sheetId="27" r:id="rId30"/>
-    <sheet name="20154344" sheetId="28" r:id="rId31"/>
-    <sheet name="20154346" sheetId="29" r:id="rId32"/>
-    <sheet name="20154347" sheetId="30" r:id="rId33"/>
-    <sheet name="20154372" sheetId="31" r:id="rId34"/>
-    <sheet name="20154359" sheetId="32" r:id="rId35"/>
-    <sheet name="20154352" sheetId="33" r:id="rId36"/>
-    <sheet name="Sheet2" sheetId="34" r:id="rId37"/>
-    <sheet name="Sheet3" sheetId="35" r:id="rId38"/>
+    <sheet name="20154360" sheetId="5" r:id="rId8"/>
+    <sheet name="20154369" sheetId="6" r:id="rId9"/>
+    <sheet name="20154357" sheetId="7" r:id="rId10"/>
+    <sheet name="20154356" sheetId="8" r:id="rId11"/>
+    <sheet name="20154349" sheetId="9" r:id="rId12"/>
+    <sheet name="20154350" sheetId="10" r:id="rId13"/>
+    <sheet name="20154366" sheetId="11" r:id="rId14"/>
+    <sheet name="20154355" sheetId="12" r:id="rId15"/>
+    <sheet name="20154368" sheetId="13" r:id="rId16"/>
+    <sheet name="20154343" sheetId="14" r:id="rId17"/>
+    <sheet name="20154354" sheetId="15" r:id="rId18"/>
+    <sheet name="20154361" sheetId="16" r:id="rId19"/>
+    <sheet name="20154367" sheetId="17" r:id="rId20"/>
+    <sheet name="20154362" sheetId="18" r:id="rId21"/>
+    <sheet name="20154345" sheetId="19" r:id="rId22"/>
+    <sheet name="20154348" sheetId="20" r:id="rId23"/>
+    <sheet name="20154358" sheetId="21" r:id="rId24"/>
+    <sheet name="20154353" sheetId="22" r:id="rId25"/>
+    <sheet name="20154364" sheetId="23" r:id="rId26"/>
+    <sheet name="20154370" sheetId="24" r:id="rId27"/>
+    <sheet name="20154351" sheetId="25" r:id="rId28"/>
+    <sheet name="20154344" sheetId="26" r:id="rId29"/>
+    <sheet name="20154346" sheetId="27" r:id="rId30"/>
+    <sheet name="20154347" sheetId="28" r:id="rId31"/>
+    <sheet name="20154372" sheetId="29" r:id="rId32"/>
+    <sheet name="20154359" sheetId="30" r:id="rId33"/>
+    <sheet name="20154352" sheetId="31" r:id="rId34"/>
+    <sheet name="Sheet2" sheetId="32" r:id="rId35"/>
+    <sheet name="Sheet3" sheetId="33" r:id="rId36"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -50,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -199,9 +197,6 @@
     <t>Alvina Manuel Ndima</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -274,15 +269,6 @@
     <t>Escolas no Estrangeiro</t>
   </si>
   <si>
-    <t>Tchambule</t>
-  </si>
-  <si>
-    <t>Edgar Leonardo</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>Simbine</t>
   </si>
   <si>
@@ -298,9 +284,6 @@
     <t>Adelia Joel Guambe</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110104653442B</t>
   </si>
   <si>
@@ -322,9 +305,6 @@
     <t>Filomena Rafael Mabjaia</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>110100905400N</t>
   </si>
   <si>
@@ -376,9 +356,6 @@
     <t>Fernanda A. Namburete</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110200302342B</t>
   </si>
   <si>
@@ -520,9 +497,6 @@
     <t>Regina Joao Munguambe</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110500451566S</t>
   </si>
   <si>
@@ -670,12 +644,6 @@
     <t>Outra - Cid.Maputo</t>
   </si>
   <si>
-    <t>Marindze</t>
-  </si>
-  <si>
-    <t>Carlos Ananias</t>
-  </si>
-  <si>
     <t>Marinde</t>
   </si>
   <si>
@@ -691,9 +659,6 @@
     <t>Joana Luisa</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110102332532N</t>
   </si>
   <si>
@@ -817,9 +782,6 @@
     <t>Luisa JÃºlio Chiquepo</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>110500162653A</t>
   </si>
   <si>
@@ -839,9 +801,6 @@
   </si>
   <si>
     <t>Marcelina Caliche Gove</t>
-  </si>
-  <si>
-    <t>Cidade de Inhambane</t>
   </si>
   <si>
     <t>080101424501B</t>
@@ -2155,7 +2114,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154349</v>
+        <v>20154350</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2179,7 +2138,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2195,7 +2154,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2211,7 +2170,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2227,7 +2186,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2243,7 +2202,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2258,9 +2217,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2268,7 +2225,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2279,7 +2236,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2288,7 +2245,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2300,7 +2257,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2431,7 +2388,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>1987</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -2447,7 +2404,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2750,7 +2707,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154350</v>
+        <v>20154366</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2774,7 +2731,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2790,7 +2747,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2806,7 +2763,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2822,7 +2779,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2838,7 +2795,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2853,9 +2810,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2863,7 +2818,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2874,7 +2829,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2883,7 +2838,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2895,7 +2850,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2903,7 +2858,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2999,7 +2954,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3026,7 +2981,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2000</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3042,7 +2997,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3345,7 +3300,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154366</v>
+        <v>20154355</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3369,7 +3324,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3385,7 +3340,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3401,7 +3356,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3417,7 +3372,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3433,7 +3388,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3448,9 +3403,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3458,7 +3411,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3469,7 +3422,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3478,7 +3431,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3490,7 +3443,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3498,7 +3451,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3594,7 +3547,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3621,7 +3574,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3637,7 +3590,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3940,7 +3893,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154355</v>
+        <v>20154368</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4043,9 +3996,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4053,7 +4004,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4064,7 +4015,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4073,7 +4024,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4085,7 +4036,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4216,7 +4167,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4232,7 +4183,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4535,7 +4486,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154368</v>
+        <v>20154343</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4559,7 +4510,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4575,7 +4526,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4591,7 +4542,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4607,7 +4558,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4623,7 +4574,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4638,9 +4589,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4648,7 +4597,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4659,7 +4608,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4668,7 +4617,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4680,7 +4629,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4688,7 +4637,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4784,7 +4733,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4811,7 +4760,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4827,7 +4776,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5130,7 +5079,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154343</v>
+        <v>20154354</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5154,7 +5103,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5170,7 +5119,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5186,7 +5135,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5202,7 +5151,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5218,7 +5167,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5233,9 +5182,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>156</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5243,7 +5190,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5254,7 +5201,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5263,7 +5210,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5275,7 +5222,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5406,7 +5353,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -5725,7 +5672,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154354</v>
+        <v>20154361</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5828,9 +5775,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>156</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5838,7 +5783,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5849,7 +5794,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5858,7 +5803,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5870,7 +5815,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6320,7 +6265,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154361</v>
+        <v>20154367</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6423,9 +6368,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6433,7 +6376,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6444,7 +6387,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6453,7 +6396,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6465,7 +6408,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6612,7 +6555,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6915,7 +6858,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154367</v>
+        <v>20154362</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6939,7 +6882,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6955,7 +6898,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6971,7 +6914,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6987,7 +6930,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7003,7 +6946,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7018,9 +6961,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7028,7 +6969,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7039,7 +6980,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7048,7 +6989,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7060,7 +7001,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7207,7 +7148,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7510,7 +7451,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154362</v>
+        <v>20154345</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7613,9 +7554,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>156</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7623,7 +7562,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7634,7 +7573,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7643,7 +7582,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7655,7 +7594,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7663,7 +7602,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7759,7 +7698,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7802,7 +7741,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8208,9 +8147,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8218,7 +8155,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8229,7 +8166,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8238,7 +8175,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8250,7 +8187,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8258,7 +8195,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8354,7 +8291,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8397,7 +8334,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8700,7 +8637,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154345</v>
+        <v>20154348</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8724,7 +8661,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8740,7 +8677,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8756,7 +8693,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8772,7 +8709,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8788,7 +8725,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8803,9 +8740,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8813,7 +8748,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8824,7 +8759,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8833,7 +8768,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8845,7 +8780,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8853,7 +8788,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8949,7 +8884,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8976,7 +8911,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>1998</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -8992,7 +8927,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9295,7 +9230,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154348</v>
+        <v>20154358</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9398,9 +9333,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9408,7 +9341,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9419,7 +9352,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9428,7 +9361,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9440,7 +9373,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9571,7 +9504,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>1998</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9587,7 +9520,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>205</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9838,7 +9771,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -9888,7 +9823,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154531</v>
+        <v>20154353</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9912,7 +9847,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9928,7 +9863,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9943,7 +9878,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>207</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -9957,7 +9894,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>208</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -9971,7 +9910,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>209</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -9992,7 +9933,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -10001,14 +9944,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -10018,13 +9965,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>210</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -10119,7 +10070,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10145,7 +10096,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -10159,7 +10112,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>197</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -10461,7 +10416,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154358</v>
+        <v>20154364</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10485,7 +10440,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10501,7 +10456,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10517,7 +10472,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10533,7 +10488,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10549,7 +10504,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10564,9 +10519,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>213</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10574,7 +10527,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10585,7 +10538,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10594,7 +10547,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10606,15 +10559,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>214</v>
+      <c r="H17" s="20">
+        <v>10062421</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10710,7 +10663,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10737,7 +10690,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10753,7 +10706,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11056,7 +11009,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154353</v>
+        <v>20154370</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11080,7 +11033,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11096,7 +11049,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11112,7 +11065,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11128,7 +11081,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11144,7 +11097,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11159,9 +11112,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11169,7 +11120,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11180,7 +11131,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11189,7 +11140,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11201,7 +11152,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11209,7 +11160,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11305,7 +11256,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11332,7 +11283,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11348,7 +11299,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>205</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11651,7 +11602,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154364</v>
+        <v>20154351</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11675,7 +11626,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11691,7 +11642,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11707,7 +11658,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11723,7 +11674,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11739,7 +11690,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11754,9 +11705,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11764,7 +11713,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11775,7 +11724,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11784,7 +11733,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11796,15 +11745,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>10062421</v>
+      <c r="H17" s="20" t="s">
+        <v>230</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11900,7 +11849,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11927,7 +11876,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11943,7 +11892,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12246,7 +12195,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154370</v>
+        <v>20154344</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12270,7 +12219,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12286,7 +12235,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12302,7 +12251,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12318,7 +12267,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12334,7 +12283,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12349,9 +12298,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>156</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12359,7 +12306,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12370,7 +12317,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12379,7 +12326,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12391,7 +12338,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12399,7 +12346,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12495,7 +12442,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12522,7 +12469,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12538,7 +12485,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12841,7 +12788,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154351</v>
+        <v>20154346</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12865,7 +12812,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12881,7 +12828,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12897,7 +12844,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12913,7 +12860,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12929,7 +12876,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12944,9 +12891,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12954,7 +12899,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12965,7 +12910,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12974,7 +12919,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12986,7 +12931,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12994,7 +12939,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13090,7 +13035,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13117,7 +13062,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13133,7 +13078,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13436,7 +13381,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154344</v>
+        <v>20154347</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13460,7 +13405,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13476,7 +13421,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13492,7 +13437,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13508,7 +13453,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13524,7 +13469,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13539,9 +13484,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13549,7 +13492,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13560,7 +13503,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13569,7 +13512,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13581,7 +13524,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13589,7 +13532,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13685,7 +13628,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13712,7 +13655,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13728,7 +13671,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>253</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14031,7 +13974,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154346</v>
+        <v>20154372</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14055,7 +13998,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14071,7 +14014,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14087,7 +14030,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14103,7 +14046,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14119,7 +14062,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14134,9 +14077,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>255</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14144,7 +14085,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14155,7 +14096,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14164,7 +14105,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14176,7 +14117,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14184,7 +14125,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14280,7 +14221,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14307,7 +14248,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14323,7 +14264,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>159</v>
+        <v>261</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14650,7 +14591,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14666,7 +14607,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14682,7 +14623,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14698,7 +14639,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14714,7 +14655,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14729,9 +14670,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14739,7 +14678,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14750,7 +14689,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14759,7 +14698,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14771,7 +14710,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14779,7 +14718,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14875,7 +14814,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14918,7 +14857,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15221,7 +15160,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154347</v>
+        <v>20154359</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15245,7 +15184,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15261,7 +15200,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15277,7 +15216,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15293,7 +15232,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15309,7 +15248,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15324,9 +15263,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>263</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15334,7 +15271,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15345,7 +15282,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15354,7 +15291,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15366,7 +15303,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15374,7 +15311,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15470,7 +15407,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15497,7 +15434,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -15513,7 +15450,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15816,7 +15753,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154372</v>
+        <v>20154352</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15840,7 +15777,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15856,7 +15793,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15872,7 +15809,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15888,7 +15825,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15904,7 +15841,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15919,9 +15856,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15929,7 +15864,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15940,7 +15875,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15949,7 +15884,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15961,7 +15896,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15969,7 +15904,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16065,7 +16000,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16092,7 +16027,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16108,7 +16043,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>274</v>
+        <v>159</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16311,1196 +16246,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20154359</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20154352</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2011</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -17524,7 +16269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17681,7 +16426,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17697,7 +16442,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17713,7 +16458,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17729,7 +16474,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17745,7 +16490,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17760,9 +16505,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17770,7 +16513,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17781,7 +16524,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17790,7 +16533,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17802,7 +16545,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17810,7 +16553,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17906,7 +16649,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17949,7 +16692,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18200,7 +16943,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -18250,7 +16995,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154500</v>
+        <v>20154360</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18274,7 +17019,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18290,7 +17035,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18305,7 +17050,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>75</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -18319,7 +17066,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -18333,7 +17082,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -18354,7 +17105,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -18363,14 +17116,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -18380,13 +17137,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -18481,7 +17242,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18507,7 +17268,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2004</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -18521,7 +17284,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -18823,7 +17588,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154360</v>
+        <v>20154369</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18847,7 +17612,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18863,7 +17628,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18879,7 +17644,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18895,7 +17660,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18911,7 +17676,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18926,9 +17691,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18936,7 +17699,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18947,7 +17710,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18956,7 +17719,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18968,7 +17731,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18976,7 +17739,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19072,7 +17835,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19099,7 +17862,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2004</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -19115,7 +17878,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19418,7 +18181,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154369</v>
+        <v>20154357</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19442,7 +18205,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19458,7 +18221,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19474,7 +18237,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19490,7 +18253,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19506,7 +18269,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19521,9 +18284,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19531,7 +18292,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19542,7 +18303,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19551,7 +18312,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19563,7 +18324,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19571,7 +18332,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19667,7 +18428,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19694,7 +18455,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -19710,7 +18471,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20013,7 +18774,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154357</v>
+        <v>20154356</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20037,7 +18798,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20053,7 +18814,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20069,7 +18830,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20085,7 +18846,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20101,7 +18862,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20116,9 +18877,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20126,7 +18885,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20137,7 +18896,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20146,7 +18905,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20158,7 +18917,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20166,7 +18925,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20262,7 +19021,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20289,7 +19048,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -20305,7 +19064,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20608,7 +19367,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154356</v>
+        <v>20154349</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20632,7 +19391,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20648,7 +19407,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20664,7 +19423,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20680,7 +19439,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20696,7 +19455,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20711,9 +19470,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>108</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20721,7 +19478,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20732,7 +19489,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20741,7 +19498,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20753,7 +19510,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20761,7 +19518,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20857,7 +19614,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20884,7 +19641,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>1987</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -20900,7 +19657,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
